--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Type of records.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Type of records.xlsx
@@ -38,6 +38,12 @@
     <t>Type of records_2</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Type of records_5</t>
+  </si>
+  <si>
     <t>Quantified and described as eaten</t>
   </si>
   <si>
@@ -48,12 +54,6 @@
   </si>
   <si>
     <t>Type of records_4</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Type of records_5</t>
   </si>
 </sst>
 </file>
